--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1639.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1639.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.040015696263485</v>
+        <v>1.098603367805481</v>
       </c>
       <c r="B1">
-        <v>3.037627993426594</v>
+        <v>3.831497430801392</v>
       </c>
       <c r="C1">
-        <v>3.608437737035464</v>
+        <v>3.616532325744629</v>
       </c>
       <c r="D1">
-        <v>2.414074073768864</v>
+        <v>3.262124061584473</v>
       </c>
       <c r="E1">
-        <v>1.19886957234057</v>
+        <v>1.235480070114136</v>
       </c>
     </row>
   </sheetData>
